--- a/source/wishlist_valentin.xlsx
+++ b/source/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7184CBDB-10FF-433A-9E99-2BDC58C939C2}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0B6801-1546-47BE-AEF4-E52B813F975A}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4785" windowWidth="27570" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="6075" yWindow="5010" windowWidth="27570" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Image</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>179 CHF</t>
-  </si>
-  <si>
-    <t>https://www.digitec.ch/im/productimages/4/5/6/6/3/4/1/3/7/6/8/1/3/6/8/5/8/3/5/a2d38d9c-bba6-4d19-aca4-e105391dcea4.png</t>
   </si>
   <si>
     <t>https://www.wog.ch/nas/cover_large/p5/p5_finalfantasy16steelbook.jpg</t>
@@ -87,18 +84,6 @@
     <t>What If? 2 English Hardcover</t>
   </si>
   <si>
-    <t>https://www.digitec.ch/im/productimages/4/9/7/8/5/0/0/2/4/5/7/7/1/0/9/7/5/5/5/d0d6ceb1-8be5-44dc-a5d5-02fe89c480e0.jpg?impolicy=ProductTileImage&amp;resizeWidth=500&amp;resizeHeight=375&amp;cropWidth=500&amp;cropHeight=375&amp;resizeType=downsize&amp;quality=high</t>
-  </si>
-  <si>
-    <t>https://www.digitec.ch/en/s1/product/microsoft-xbox-wireless-controller-starfield-limited-edition-xbox-one-s-xbox-series-s-pc-game-contro-35870801</t>
-  </si>
-  <si>
-    <t>74.90 CHF</t>
-  </si>
-  <si>
-    <t>Microsoft Xbox Wireless Controller - Starfield Limited Edition</t>
-  </si>
-  <si>
     <t>https://www.wog.ch/index.cfm/details/product/164059%2DCities%2DSkylines%2DII%2DDay%2D1%2DEdition</t>
   </si>
   <si>
@@ -148,6 +133,84 @@
   </si>
   <si>
     <t>https://www.digitec.ch/en/s1/product/apple-airpods-3rd-gen-magsafe-case-anc-20-h-wireless-headphones-17080520</t>
+  </si>
+  <si>
+    <t>Steam Digital Gift Card</t>
+  </si>
+  <si>
+    <t>https://store.cloudflare.steamstatic.com/public/images/gift/steamcards_cards_02.png</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/digitalgiftcards/</t>
+  </si>
+  <si>
+    <t>https://www.loveramics.com/collections/coffee-gifts/products/champions-signature-set-of-2-beans-dosing-trays</t>
+  </si>
+  <si>
+    <t>https://www.loveramics.com/cdn/shop/products/champions-signature_square_1024_00012_800x.jpg?v=1668743538</t>
+  </si>
+  <si>
+    <t>Any CHF</t>
+  </si>
+  <si>
+    <t>36.95 EUR</t>
+  </si>
+  <si>
+    <t>Set of 2 Beans Dosing Trays</t>
+  </si>
+  <si>
+    <t>https://www.loveramics.com/collections/brewers-glass-jug-servers/products/brewers-glass-jug</t>
+  </si>
+  <si>
+    <t>500ml Tall Glass Jug with Lid</t>
+  </si>
+  <si>
+    <t>https://www.loveramics.com/cdn/shop/products/brewers_jugs_square_1024_00035_800x.jpg?v=1668676707</t>
+  </si>
+  <si>
+    <t>21.95 EUR</t>
+  </si>
+  <si>
+    <t>https://www.loveramics.com/collections/diner-mugs/products/bond-250ml-starsky-mug-granite-carmel-gunpowder</t>
+  </si>
+  <si>
+    <t>https://www.loveramics.com/cdn/shop/products/Bond_1024_Cararmel_250mlStarskyMug_800x.jpg?v=1669260890</t>
+  </si>
+  <si>
+    <t>250ml Starsky Mug CARAMEL</t>
+  </si>
+  <si>
+    <t>14.95 EUR</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/index.cfm/details/product/176170%2DSuper%2DMario%2DBros%2DWonder</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/nas/cover_large/sw/sw_supermariobroswonder.jpg</t>
+  </si>
+  <si>
+    <t>Super Mario Bros. Wonder</t>
+  </si>
+  <si>
+    <t>59.90 CHF</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/microsoft-xbox-wireless-controller-wireless-adapter-for-windows-10-xbox-one-x-xbox-series-x-pc-xbox--13874706</t>
+  </si>
+  <si>
+    <t>56.80 CHF</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/im/productimages/4/8/5/4/6/7/0/8/2/5/7/9/4/2/3/8/3/2/d5247724-fb2e-4abf-96d7-07a374a1eea8_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=500&amp;resizeHeight=375&amp;cropWidth=500&amp;cropHeight=375&amp;resizeType=downsize&amp;quality=high</t>
+  </si>
+  <si>
+    <t>Microsoft Xbox Wireless Controller + Wireless Adapter for Windows 10</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/im/productimages/7/1/8/8/4/0/4/7/9/5/1/1/9/9/5/6/4/3/6/346792b0-7f82-443e-ae90-080215b6cb79_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=500&amp;resizeHeight=375&amp;cropWidth=500&amp;cropHeight=375&amp;resizeType=downsize&amp;quality=high</t>
   </si>
 </sst>
 </file>
@@ -226,6 +289,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Brewers - 500ml Tall Glass Jug with Lid">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2764058-D450-7759-F64F-A8B30E6CE289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1743075" y="2095500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,10 +679,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -574,100 +690,179 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
         <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -677,13 +872,14 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{88D7FD61-7495-433B-BB0E-0F6A89ABE74A}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{41EED60B-515F-4B0D-98BF-2DF8362BC20B}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{7D720CF5-777E-41A2-89A4-CF11E54DC4FC}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{BDDC5E81-F85C-4DEA-83D8-20D91EEB2F5E}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/source/wishlist_valentin.xlsx
+++ b/source/wishlist_valentin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0B6801-1546-47BE-AEF4-E52B813F975A}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{880D6B3E-5451-4883-8F8D-F2CB6C21DD4D}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="5010" windowWidth="27570" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="6420" yWindow="5355" windowWidth="27570" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Image</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>https://www.digitec.ch/im/productimages/7/1/8/8/4/0/4/7/9/5/1/1/9/9/5/6/4/3/6/346792b0-7f82-443e-ae90-080215b6cb79_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=500&amp;resizeHeight=375&amp;cropWidth=500&amp;cropHeight=375&amp;resizeType=downsize&amp;quality=high</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/en-ch/product/medieval-blacksmith-21325</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt64027ee5a1724b6d/21325_alt1.jpg?format=webply&amp;fit=bounds&amp;quality=75&amp;width=1200&amp;height=1200&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>189 CHF</t>
+  </si>
+  <si>
+    <t>Medieval Blacksmith</t>
   </si>
 </sst>
 </file>
@@ -645,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,6 +875,20 @@
       </c>
       <c r="D14" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/source/wishlist_valentin.xlsx
+++ b/source/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{880D6B3E-5451-4883-8F8D-F2CB6C21DD4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D4964-866E-47CE-ACFB-2770A4897890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="5355" windowWidth="27570" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="12735" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Image</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>Medieval Blacksmith</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/8bitdo-ultimate-controller-with-charging-station-switch-pc-game-controllers-23129289</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/im/productimages/8/8/3/3/0/3/8/8/2/7/6/6/7/1/8/8/8/0/5/3c0c5148-ac28-4cfe-8e5e-57bed767cb9d_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=648&amp;resizeHeight=486&amp;cropWidth=648&amp;cropHeight=486&amp;resizeType=downsize&amp;quality=high</t>
+  </si>
+  <si>
+    <t>8bitdo Ultimate Controller with charging station</t>
   </si>
 </sst>
 </file>
@@ -354,10 +363,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +746,9 @@
       <c r="D5" t="s">
         <v>53</v>
       </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -889,6 +897,20 @@
       </c>
       <c r="D15" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -903,9 +925,10 @@
     <hyperlink ref="B7" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
     <hyperlink ref="B12" r:id="rId6" xr:uid="{BDDC5E81-F85C-4DEA-83D8-20D91EEB2F5E}"/>
     <hyperlink ref="C13" r:id="rId7" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/source/wishlist_valentin.xlsx
+++ b/source/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D4964-866E-47CE-ACFB-2770A4897890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F05D4964-866E-47CE-ACFB-2770A4897890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E506AD42-9AB2-44B0-A8FB-634EFDFD7015}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="12735" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38595" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Image</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>8bitdo Ultimate Controller with charging station</t>
+  </si>
+  <si>
+    <t>Arkham Horror The Card Game: Revised Core Set</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Fantasy-Flight-Games-Arkham-Horror/dp/B0999D3P8S/ref=sr_1_3?crid=HGFOXKZQTV6Y&amp;keywords=arkham+horror+english&amp;qid=1699364257&amp;sprefix=arkham+horror+en%2Caps%2C89&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>87.48 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61wUiOvhH2L._AC_SL1075_.jpg</t>
   </si>
 </sst>
 </file>
@@ -363,6 +375,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,6 +927,20 @@
       </c>
       <c r="D16" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/source/wishlist_valentin.xlsx
+++ b/source/wishlist_valentin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F05D4964-866E-47CE-ACFB-2770A4897890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E506AD42-9AB2-44B0-A8FB-634EFDFD7015}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F05D4964-866E-47CE-ACFB-2770A4897890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EC70363-6246-48D8-ADF6-973A67CFAEEE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38595" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Image</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61wUiOvhH2L._AC_SL1075_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brass Birmingham Board Game </t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/614zbkJJJgL._AC_SL1200_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Roxley-Games-Brass-Birmingham-Board/dp/1988884047/ref=sr_1_1?crid=2DVJHJTB01TNV&amp;keywords=Brass%2BBirmingham&amp;qid=1699391429&amp;s=toys&amp;sprefix=brass%2Bbirmingham%2Ctoys%2C100&amp;sr=1-1&amp;th=1</t>
+  </si>
+  <si>
+    <t>94.31 EUR</t>
   </si>
 </sst>
 </file>
@@ -678,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,6 +953,20 @@
       </c>
       <c r="D17" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/source/wishlist_valentin.xlsx
+++ b/source/wishlist_valentin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F05D4964-866E-47CE-ACFB-2770A4897890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EC70363-6246-48D8-ADF6-973A67CFAEEE}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{F05D4964-866E-47CE-ACFB-2770A4897890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8485B2E2-E46B-4655-8D83-EE83FDD405B7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38595" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="38280" yWindow="0" windowWidth="19425" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Image</t>
   </si>
@@ -256,6 +256,39 @@
   </si>
   <si>
     <t>94.31 EUR</t>
+  </si>
+  <si>
+    <t>GN Red &amp; Black 'HUD' Mouse Mat</t>
+  </si>
+  <si>
+    <t>GN 'Charge' Red/Black Microfiber Cloth Mousepad</t>
+  </si>
+  <si>
+    <t>GN Drink 'Debug' Coaster Pack</t>
+  </si>
+  <si>
+    <t>https://store.gamersnexus.net/products/gn-red-black-hud-mouse-mat</t>
+  </si>
+  <si>
+    <t>https://store.gamersnexus.net/products/gn-charge-redblack-mousepad</t>
+  </si>
+  <si>
+    <t>https://store.gamersnexus.net/products/gn-drink-debug-coaster-pack-4-custom-3d-coasters-100x100mm-4x4</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/58c839976b8f5ba6ce6a8105/1639861410250-81GPR6I1BSEPA4D21TWM/top-down-plants-only2.jpg?format=750w</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/58c839976b8f5ba6ce6a8105/1621098515020-CZO4LA6HWNQRH4H9C5C9/charge-mousepad_desk-right.jpg?format=750w</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/58c839976b8f5ba6ce6a8105/1666119266873-0IJXCW0IUAFYQNK2W89O/coaster-pack-4-spaced2.jpg?format=750w</t>
+  </si>
+  <si>
+    <t>$29.99</t>
+  </si>
+  <si>
+    <t>$19.99</t>
   </si>
 </sst>
 </file>
@@ -690,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,6 +1000,48 @@
       </c>
       <c r="D18" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
